--- a/styles.xlsx
+++ b/styles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\WithEveryone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612822F-A0D4-4A2E-86C0-437ED8650D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBD4271-78A2-4618-B170-D8EE99E96BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10416" yWindow="264" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="การตอบแบบฟอร์ม 1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>hair</t>
   </si>
   <si>
-    <t xml:space="preserve">Oval </t>
-  </si>
-  <si>
     <t>Round</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Poor</t>
+  </si>
+  <si>
+    <t>Oval</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -489,47 +489,47 @@
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
